--- a/Project/2017-08-10.会员营销发卷逻辑/20170418会员营销发券逻辑.xlsx
+++ b/Project/2017-08-10.会员营销发卷逻辑/20170418会员营销发券逻辑.xlsx
@@ -624,14 +624,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>12次满199（毛利额控制 600元以上）(每自然年仅发一次) (3张券仅发一次)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>12次满299（毛利额控制 800元以上）(每自然年仅发一次)(3张券仅发一次)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>等级晋升送豪礼</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -782,10 +774,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>12次满399（毛利额控制 1500元以上）(每自然年仅发一次)(3张券仅发一次)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>3次399（实际支付金额）（自然月）（毛利额控制  300以上）(每自然月仅发一次)(每月7号发)(3张券仅发一次)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -795,6 +783,18 @@
   </si>
   <si>
     <t>3次199（实际支付金额）（自然月）（毛利额控制  100以上）(每自然月仅发一次)(每月7号发)(3张券仅发一次)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12次满199（毛利额控制 600元以上）(每自然年仅发一次) (3张券仅发一次)(每月15号发)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12次满299（毛利额控制 800元以上）(每自然年仅发一次)(3张券仅发一次)(每月15号发)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12次满399（毛利额控制 1500元以上）(每自然年仅发一次)(3张券仅发一次)(每月15号发)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -961,22 +961,22 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1289,7 +1289,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1360,16 +1360,16 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="9" t="s">
@@ -1393,15 +1393,15 @@
       <c r="K2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="28" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="23"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="9" t="s">
         <v>101</v>
       </c>
@@ -1423,13 +1423,13 @@
       <c r="K3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="27"/>
+      <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="23"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
       <c r="E4" s="9" t="s">
         <v>101</v>
       </c>
@@ -1451,13 +1451,13 @@
       <c r="K4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="27"/>
+      <c r="L4" s="28"/>
     </row>
     <row r="5" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="23"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="9" t="s">
         <v>101</v>
       </c>
@@ -1479,13 +1479,13 @@
       <c r="K5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="27"/>
+      <c r="L5" s="28"/>
     </row>
     <row r="6" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="23"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23" t="s">
+      <c r="A6" s="25"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="9" t="s">
@@ -1495,7 +1495,7 @@
         <v>21</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>12</v>
@@ -1509,15 +1509,15 @@
       <c r="K6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="28" t="s">
+      <c r="L6" s="23" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="23"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="9" t="s">
         <v>101</v>
       </c>
@@ -1539,17 +1539,17 @@
       <c r="K7" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="L7" s="28"/>
+      <c r="L7" s="23"/>
     </row>
     <row r="8" spans="1:15" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="23"/>
-      <c r="B8" s="25" t="s">
+      <c r="A8" s="25"/>
+      <c r="B8" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="25" t="s">
         <v>42</v>
       </c>
       <c r="E8" s="9" t="s">
@@ -1559,7 +1559,7 @@
         <v>144</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>12</v>
@@ -1567,21 +1567,21 @@
       <c r="I8" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="J8" s="24" t="s">
         <v>139</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="L8" s="24" t="s">
+      <c r="L8" s="26" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="23"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="9" t="s">
         <v>101</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>145</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>12</v>
@@ -1597,17 +1597,17 @@
       <c r="I9" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="J9" s="25"/>
+      <c r="J9" s="24"/>
       <c r="K9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="24"/>
+      <c r="L9" s="26"/>
     </row>
     <row r="10" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="23"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="9" t="s">
         <v>101</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>146</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>12</v>
@@ -1623,19 +1623,19 @@
       <c r="I10" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="J10" s="25"/>
+      <c r="J10" s="24"/>
       <c r="K10" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="L10" s="24"/>
+      <c r="L10" s="26"/>
     </row>
     <row r="11" spans="1:15" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="23"/>
-      <c r="B11" s="25" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23" t="s">
+      <c r="C11" s="25"/>
+      <c r="D11" s="25" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="9" t="s">
@@ -1645,7 +1645,7 @@
         <v>142</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>12</v>
@@ -1653,17 +1653,17 @@
       <c r="I11" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="J11" s="25"/>
+      <c r="J11" s="24"/>
       <c r="K11" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="L11" s="24"/>
+      <c r="L11" s="26"/>
     </row>
     <row r="12" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="23"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
       <c r="E12" s="9" t="s">
         <v>101</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>143</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>12</v>
@@ -1679,17 +1679,17 @@
       <c r="I12" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="J12" s="25"/>
+      <c r="J12" s="24"/>
       <c r="K12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L12" s="24"/>
+      <c r="L12" s="26"/>
     </row>
     <row r="13" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="23"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
       <c r="E13" s="9" t="s">
         <v>101</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>147</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>12</v>
@@ -1705,19 +1705,19 @@
       <c r="I13" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="J13" s="25"/>
+      <c r="J13" s="24"/>
       <c r="K13" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="L13" s="24"/>
+      <c r="L13" s="26"/>
     </row>
     <row r="14" spans="1:15" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="23"/>
-      <c r="B14" s="25" t="s">
+      <c r="A14" s="25"/>
+      <c r="B14" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23" t="s">
+      <c r="C14" s="25"/>
+      <c r="D14" s="25" t="s">
         <v>42</v>
       </c>
       <c r="E14" s="9" t="s">
@@ -1727,7 +1727,7 @@
         <v>145</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>12</v>
@@ -1735,17 +1735,17 @@
       <c r="I14" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="J14" s="25"/>
+      <c r="J14" s="24"/>
       <c r="K14" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="L14" s="24"/>
+      <c r="L14" s="26"/>
     </row>
     <row r="15" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="23"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="9" t="s">
         <v>101</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>35</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>12</v>
@@ -1761,17 +1761,17 @@
       <c r="I15" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="J15" s="25"/>
+      <c r="J15" s="24"/>
       <c r="K15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="24"/>
+      <c r="L15" s="26"/>
     </row>
     <row r="16" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="23"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
       <c r="E16" s="9" t="s">
         <v>101</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>36</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>12</v>
@@ -1787,21 +1787,21 @@
       <c r="I16" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="J16" s="25"/>
+      <c r="J16" s="24"/>
       <c r="K16" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="L16" s="24"/>
+      <c r="L16" s="26"/>
     </row>
     <row r="17" spans="1:12" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="23"/>
-      <c r="B17" s="25" t="s">
+      <c r="A17" s="25"/>
+      <c r="B17" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="25" t="s">
         <v>42</v>
       </c>
       <c r="E17" s="9" t="s">
@@ -1811,7 +1811,7 @@
         <v>62</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>12</v>
@@ -1825,13 +1825,13 @@
       <c r="K17" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="L17" s="25"/>
+      <c r="L17" s="24"/>
     </row>
     <row r="18" spans="1:12" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="23"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="9" t="s">
         <v>101</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>35</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>12</v>
@@ -1853,13 +1853,13 @@
       <c r="K18" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="L18" s="25"/>
+      <c r="L18" s="24"/>
     </row>
     <row r="19" spans="1:12" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="23"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
       <c r="E19" s="9" t="s">
         <v>101</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>63</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>12</v>
@@ -1881,15 +1881,15 @@
       <c r="K19" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="L19" s="25"/>
+      <c r="L19" s="24"/>
     </row>
     <row r="20" spans="1:12" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="23"/>
-      <c r="B20" s="25" t="s">
+      <c r="A20" s="25"/>
+      <c r="B20" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23" t="s">
+      <c r="C20" s="25"/>
+      <c r="D20" s="25" t="s">
         <v>42</v>
       </c>
       <c r="E20" s="9" t="s">
@@ -1899,7 +1899,7 @@
         <v>64</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>12</v>
@@ -1913,13 +1913,13 @@
       <c r="K20" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="L20" s="25"/>
+      <c r="L20" s="24"/>
     </row>
     <row r="21" spans="1:12" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="23"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="9" t="s">
         <v>101</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>65</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>12</v>
@@ -1941,13 +1941,13 @@
       <c r="K21" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="L21" s="25"/>
+      <c r="L21" s="24"/>
     </row>
     <row r="22" spans="1:12" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="23"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="9" t="s">
         <v>101</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>66</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>12</v>
@@ -1969,22 +1969,22 @@
       <c r="K22" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="L22" s="25"/>
+      <c r="L22" s="24"/>
     </row>
     <row r="23" spans="1:12" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="23"/>
-      <c r="B23" s="25" t="s">
+      <c r="A23" s="25"/>
+      <c r="B23" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="26" t="s">
-        <v>150</v>
+      <c r="C23" s="27" t="s">
+        <v>148</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>45</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G23" s="20" t="s">
         <v>68</v>
@@ -1995,12 +1995,12 @@
       <c r="I23" s="21"/>
       <c r="J23" s="20"/>
       <c r="K23" s="20"/>
-      <c r="L23" s="25"/>
+      <c r="L23" s="24"/>
     </row>
     <row r="24" spans="1:12" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="23"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="27"/>
       <c r="D24" s="19" t="s">
         <v>46</v>
       </c>
@@ -2017,14 +2017,14 @@
       <c r="I24" s="21"/>
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
-      <c r="L24" s="25"/>
+      <c r="L24" s="24"/>
     </row>
     <row r="25" spans="1:12" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="23"/>
-      <c r="B25" s="25" t="s">
+      <c r="A25" s="25"/>
+      <c r="B25" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="26"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="19" t="s">
         <v>45</v>
       </c>
@@ -2041,12 +2041,12 @@
       <c r="I25" s="21"/>
       <c r="J25" s="20"/>
       <c r="K25" s="20"/>
-      <c r="L25" s="25"/>
+      <c r="L25" s="24"/>
     </row>
     <row r="26" spans="1:12" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A26" s="23"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="19" t="s">
         <v>46</v>
       </c>
@@ -2063,7 +2063,7 @@
       <c r="I26" s="21"/>
       <c r="J26" s="20"/>
       <c r="K26" s="20"/>
-      <c r="L26" s="25"/>
+      <c r="L26" s="24"/>
     </row>
     <row r="27" spans="1:12" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C27" s="5"/>
@@ -2072,16 +2072,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="J8:J16"/>
     <mergeCell ref="A2:A26"/>
     <mergeCell ref="L8:L16"/>
     <mergeCell ref="L17:L22"/>
@@ -2098,6 +2088,16 @@
     <mergeCell ref="C8:C16"/>
     <mergeCell ref="L2:L5"/>
     <mergeCell ref="D6:D7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="J8:J16"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2162,14 +2162,14 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="23" t="s">
-        <v>162</v>
+      <c r="C2" s="25" t="s">
+        <v>160</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>80</v>
@@ -2188,14 +2188,14 @@
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="28" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="23"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="23"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="5" t="s">
         <v>81</v>
       </c>
@@ -2206,24 +2206,24 @@
         <v>91</v>
       </c>
       <c r="G3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="27"/>
+      <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="23"/>
-      <c r="B4" s="25" t="s">
+      <c r="A4" s="25"/>
+      <c r="B4" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="25" t="s">
         <v>72</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -2233,25 +2233,25 @@
         <v>104</v>
       </c>
       <c r="F4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="27"/>
+      <c r="L4" s="28"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="23"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="23"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="5" t="s">
         <v>83</v>
       </c>
@@ -2259,25 +2259,25 @@
         <v>102</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>135</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="27"/>
+      <c r="L5" s="28"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="23"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="23"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="5" t="s">
         <v>84</v>
       </c>
@@ -2285,25 +2285,25 @@
         <v>102</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>135</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="27"/>
+      <c r="L6" s="28"/>
     </row>
     <row r="7" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="23"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="23" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="25" t="s">
         <v>73</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -2313,25 +2313,25 @@
         <v>104</v>
       </c>
       <c r="F7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="27"/>
+      <c r="L7" s="28"/>
     </row>
     <row r="8" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="23"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="23"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="5" t="s">
         <v>83</v>
       </c>
@@ -2339,25 +2339,25 @@
         <v>102</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>135</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="28"/>
+      <c r="L8" s="23"/>
     </row>
     <row r="9" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="23"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="23"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="5" t="s">
         <v>84</v>
       </c>
@@ -2365,28 +2365,28 @@
         <v>121</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>135</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="28"/>
+      <c r="L9" s="23"/>
     </row>
     <row r="10" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="23"/>
-      <c r="B10" s="25" t="s">
+      <c r="A10" s="25"/>
+      <c r="B10" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="23" t="s">
-        <v>162</v>
+      <c r="C10" s="25" t="s">
+        <v>160</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>85</v>
@@ -2395,22 +2395,22 @@
         <v>104</v>
       </c>
       <c r="F10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="23"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="23"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
       <c r="D11" s="5" t="s">
         <v>115</v>
       </c>
@@ -2418,24 +2418,24 @@
         <v>102</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>135</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="23"/>
-      <c r="B12" s="25" t="s">
+      <c r="A12" s="25"/>
+      <c r="B12" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="25" t="s">
         <v>72</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -2458,9 +2458,9 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="23"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="23"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="5" t="s">
         <v>75</v>
       </c>
@@ -2481,9 +2481,9 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="23"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="23"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="5" t="s">
         <v>76</v>
       </c>
@@ -2504,9 +2504,9 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="23"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="23" t="s">
+      <c r="A15" s="25"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25" t="s">
         <v>73</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -2529,9 +2529,9 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="23"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="23"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="5" t="s">
         <v>75</v>
       </c>
@@ -2552,9 +2552,9 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="23"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="23"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="5" t="s">
         <v>76</v>
       </c>
@@ -2575,8 +2575,8 @@
       </c>
     </row>
     <row r="18" spans="1:9" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="23"/>
-      <c r="B18" s="26" t="s">
+      <c r="A18" s="25"/>
+      <c r="B18" s="27" t="s">
         <v>56</v>
       </c>
       <c r="C18" s="29" t="s">
@@ -2602,8 +2602,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="23"/>
-      <c r="B19" s="26"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="29"/>
       <c r="D19" s="20" t="s">
         <v>77</v>
@@ -2625,8 +2625,8 @@
       </c>
     </row>
     <row r="20" spans="1:9" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="23"/>
-      <c r="B20" s="26"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="29"/>
       <c r="D20" s="20" t="s">
         <v>77</v>
@@ -2648,8 +2648,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="23"/>
-      <c r="B21" s="26"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="29" t="s">
         <v>73</v>
       </c>
@@ -2673,8 +2673,8 @@
       </c>
     </row>
     <row r="22" spans="1:9" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="23"/>
-      <c r="B22" s="26"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="29"/>
       <c r="D22" s="20" t="s">
         <v>77</v>
@@ -2696,8 +2696,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="23"/>
-      <c r="B23" s="26"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="29"/>
       <c r="D23" s="20" t="s">
         <v>77</v>
@@ -2720,6 +2720,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="L4:L7"/>
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="L2:L3"/>
@@ -2730,13 +2737,6 @@
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2799,16 +2799,16 @@
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>52</v>
       </c>
       <c r="E2" s="9" t="s">
@@ -2818,7 +2818,7 @@
         <v>113</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>12</v>
@@ -2828,13 +2828,13 @@
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="27"/>
+      <c r="L2" s="28"/>
     </row>
     <row r="3" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="23"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="11" t="s">
         <v>108</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>70</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>12</v>
@@ -2854,13 +2854,13 @@
         <v>800</v>
       </c>
       <c r="K3" s="3"/>
-      <c r="L3" s="27"/>
+      <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="23"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23" t="s">
+      <c r="A4" s="25"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25" t="s">
         <v>54</v>
       </c>
       <c r="E4" s="11" t="s">
@@ -2870,7 +2870,7 @@
         <v>70</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>12</v>
@@ -2880,13 +2880,13 @@
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="27"/>
+      <c r="L4" s="28"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="23"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="11" t="s">
         <v>108</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>70</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>12</v>
@@ -2906,13 +2906,13 @@
         <v>800</v>
       </c>
       <c r="K5" s="3"/>
-      <c r="L5" s="27"/>
+      <c r="L5" s="28"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="23"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23" t="s">
+      <c r="A6" s="25"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25" t="s">
         <v>53</v>
       </c>
       <c r="E6" s="11" t="s">
@@ -2922,7 +2922,7 @@
         <v>70</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>12</v>
@@ -2932,13 +2932,13 @@
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="28"/>
+      <c r="L6" s="23"/>
     </row>
     <row r="7" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="23"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="11" t="s">
         <v>108</v>
       </c>
@@ -2958,16 +2958,16 @@
         <v>800</v>
       </c>
       <c r="K7" s="3"/>
-      <c r="L7" s="28"/>
+      <c r="L7" s="23"/>
     </row>
     <row r="8" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="23"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="23" t="s">
+      <c r="A8" s="25"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25" t="s">
         <v>50</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>114</v>
@@ -2986,14 +2986,14 @@
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="27"/>
+      <c r="L8" s="28"/>
     </row>
     <row r="9" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="23"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="23"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>114</v>
@@ -3012,12 +3012,12 @@
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="27"/>
+      <c r="L9" s="28"/>
     </row>
     <row r="10" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="23"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="23"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="11" t="s">
         <v>61</v>
       </c>
@@ -3041,14 +3041,14 @@
       <c r="L10" s="12"/>
     </row>
     <row r="11" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="23"/>
-      <c r="B11" s="25" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="D11" s="23" t="s">
+      <c r="C11" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" s="25" t="s">
         <v>112</v>
       </c>
       <c r="E11" s="11" t="s">
@@ -3070,13 +3070,13 @@
         <v>118</v>
       </c>
       <c r="K11" s="3"/>
-      <c r="L11" s="27"/>
+      <c r="L11" s="28"/>
     </row>
     <row r="12" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="23"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
       <c r="E12" s="11" t="s">
         <v>108</v>
       </c>
@@ -3096,13 +3096,13 @@
         <v>118</v>
       </c>
       <c r="K12" s="3"/>
-      <c r="L12" s="27"/>
+      <c r="L12" s="28"/>
     </row>
     <row r="13" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="23"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23" t="s">
+      <c r="A13" s="25"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25" t="s">
         <v>109</v>
       </c>
       <c r="E13" s="11" t="s">
@@ -3124,13 +3124,13 @@
         <v>118</v>
       </c>
       <c r="K13" s="3"/>
-      <c r="L13" s="27"/>
+      <c r="L13" s="28"/>
     </row>
     <row r="14" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="23"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
       <c r="E14" s="11" t="s">
         <v>108</v>
       </c>
@@ -3150,13 +3150,13 @@
         <v>118</v>
       </c>
       <c r="K14" s="3"/>
-      <c r="L14" s="27"/>
+      <c r="L14" s="28"/>
     </row>
     <row r="15" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="23"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23" t="s">
+      <c r="A15" s="25"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25" t="s">
         <v>110</v>
       </c>
       <c r="E15" s="11" t="s">
@@ -3166,23 +3166,23 @@
         <v>70</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="28"/>
+      <c r="L15" s="23"/>
     </row>
     <row r="16" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="23"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
       <c r="E16" s="11" t="s">
         <v>108</v>
       </c>
@@ -3190,25 +3190,25 @@
         <v>70</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="28"/>
+      <c r="L16" s="23"/>
     </row>
     <row r="17" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="23"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="23" t="s">
+      <c r="A17" s="25"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="25" t="s">
         <v>109</v>
       </c>
       <c r="E17" s="11" t="s">
@@ -3218,23 +3218,23 @@
         <v>70</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="27"/>
+      <c r="L17" s="28"/>
     </row>
     <row r="18" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="23"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="11" t="s">
         <v>108</v>
       </c>
@@ -3242,49 +3242,49 @@
         <v>70</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="27"/>
+      <c r="L18" s="28"/>
     </row>
     <row r="19" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="23"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23" t="s">
+      <c r="A19" s="25"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25" t="s">
         <v>110</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>108</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="27"/>
+      <c r="L19" s="28"/>
     </row>
     <row r="20" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="23"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
       <c r="E20" s="11" t="s">
         <v>108</v>
       </c>
@@ -3292,23 +3292,23 @@
         <v>70</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="27"/>
+      <c r="L20" s="28"/>
     </row>
     <row r="21" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="23"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23" t="s">
+      <c r="A21" s="25"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25" t="s">
         <v>111</v>
       </c>
       <c r="E21" s="11" t="s">
@@ -3318,23 +3318,23 @@
         <v>70</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="28"/>
+      <c r="L21" s="23"/>
     </row>
     <row r="22" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="23"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="11" t="s">
         <v>108</v>
       </c>
@@ -3342,20 +3342,27 @@
         <v>70</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="28"/>
+      <c r="L22" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="B11:B22"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
     <mergeCell ref="A2:A22"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="D4:D5"/>
@@ -3372,13 +3379,6 @@
     <mergeCell ref="L17:L20"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="L21:L22"/>
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="B11:B22"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3454,16 +3454,16 @@
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="25" t="s">
         <v>96</v>
       </c>
       <c r="E2" s="9"/>
@@ -3474,13 +3474,13 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="27"/>
+      <c r="M2" s="28"/>
     </row>
     <row r="3" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="23"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="3"/>
@@ -3489,13 +3489,13 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="27"/>
+      <c r="M3" s="28"/>
     </row>
     <row r="4" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="23"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23" t="s">
+      <c r="A4" s="25"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25" t="s">
         <v>106</v>
       </c>
       <c r="E4" s="9"/>
@@ -3506,13 +3506,13 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="27"/>
+      <c r="M4" s="28"/>
     </row>
     <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="23"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="3"/>
@@ -3521,13 +3521,13 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="27"/>
+      <c r="M5" s="28"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="23"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23" t="s">
+      <c r="A6" s="25"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25" t="s">
         <v>107</v>
       </c>
       <c r="E6" s="9"/>
@@ -3538,13 +3538,13 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="28"/>
+      <c r="M6" s="23"/>
     </row>
     <row r="7" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="23"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="3"/>
@@ -3553,15 +3553,15 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="28"/>
+      <c r="M7" s="23"/>
     </row>
     <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="23"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="23" t="s">
+      <c r="A8" s="25"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="25" t="s">
         <v>96</v>
       </c>
       <c r="E8" s="9"/>
@@ -3572,13 +3572,13 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="3"/>
-      <c r="M8" s="27"/>
+      <c r="M8" s="28"/>
     </row>
     <row r="9" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="23"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="3"/>
@@ -3587,13 +3587,13 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="3"/>
-      <c r="M9" s="27"/>
+      <c r="M9" s="28"/>
     </row>
     <row r="10" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="23"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23" t="s">
+      <c r="A10" s="25"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25" t="s">
         <v>106</v>
       </c>
       <c r="E10" s="9"/>
@@ -3604,13 +3604,13 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="27"/>
+      <c r="M10" s="28"/>
     </row>
     <row r="11" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="23"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="3"/>
@@ -3619,13 +3619,13 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="27"/>
+      <c r="M11" s="28"/>
     </row>
     <row r="12" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="23"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23" t="s">
+      <c r="A12" s="25"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25" t="s">
         <v>107</v>
       </c>
       <c r="E12" s="9"/>
@@ -3636,13 +3636,13 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="28"/>
+      <c r="M12" s="23"/>
     </row>
     <row r="13" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="23"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="3"/>
@@ -3651,17 +3651,17 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="28"/>
+      <c r="M13" s="23"/>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="23"/>
-      <c r="B14" s="25" t="s">
+      <c r="A14" s="25"/>
+      <c r="B14" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="25" t="s">
         <v>96</v>
       </c>
       <c r="E14" s="9"/>
@@ -3672,13 +3672,13 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="27"/>
+      <c r="M14" s="28"/>
     </row>
     <row r="15" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="23"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="3"/>
@@ -3687,13 +3687,13 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="27"/>
+      <c r="M15" s="28"/>
     </row>
     <row r="16" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="23"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23" t="s">
+      <c r="A16" s="25"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25" t="s">
         <v>106</v>
       </c>
       <c r="E16" s="9"/>
@@ -3704,13 +3704,13 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="27"/>
+      <c r="M16" s="28"/>
     </row>
     <row r="17" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="23"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="3"/>
@@ -3719,13 +3719,13 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="27"/>
+      <c r="M17" s="28"/>
     </row>
     <row r="18" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="23"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23" t="s">
+      <c r="A18" s="25"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25" t="s">
         <v>107</v>
       </c>
       <c r="E18" s="9"/>
@@ -3736,13 +3736,13 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="28"/>
+      <c r="M18" s="23"/>
     </row>
     <row r="19" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="23"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="3"/>
@@ -3751,15 +3751,15 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="28"/>
+      <c r="M19" s="23"/>
     </row>
     <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="23"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="23" t="s">
+      <c r="A20" s="25"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="25" t="s">
         <v>96</v>
       </c>
       <c r="E20" s="9"/>
@@ -3770,13 +3770,13 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="27"/>
+      <c r="M20" s="28"/>
     </row>
     <row r="21" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="23"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="3"/>
@@ -3785,13 +3785,13 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="3"/>
-      <c r="M21" s="27"/>
+      <c r="M21" s="28"/>
     </row>
     <row r="22" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="23"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23" t="s">
+      <c r="A22" s="25"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25" t="s">
         <v>106</v>
       </c>
       <c r="E22" s="9"/>
@@ -3802,13 +3802,13 @@
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="3"/>
-      <c r="M22" s="27"/>
+      <c r="M22" s="28"/>
     </row>
     <row r="23" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="23"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="3"/>
@@ -3817,13 +3817,13 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="27"/>
+      <c r="M23" s="28"/>
     </row>
     <row r="24" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="23"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23" t="s">
+      <c r="A24" s="25"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25" t="s">
         <v>107</v>
       </c>
       <c r="E24" s="9"/>
@@ -3834,13 +3834,13 @@
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="3"/>
-      <c r="M24" s="28"/>
+      <c r="M24" s="23"/>
     </row>
     <row r="25" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="23"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="3"/>
@@ -3849,10 +3849,21 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="3"/>
-      <c r="M25" s="28"/>
+      <c r="M25" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="M20:M23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="M14:M17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="M18:M19"/>
     <mergeCell ref="A2:A25"/>
     <mergeCell ref="B2:B13"/>
     <mergeCell ref="C2:C7"/>
@@ -3869,17 +3880,6 @@
     <mergeCell ref="M12:M13"/>
     <mergeCell ref="B14:B25"/>
     <mergeCell ref="C14:C19"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="M14:M17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="M20:M23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="M24:M25"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
